--- a/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T10:54:17+00:00</t>
+    <t>2023-02-13T13:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T13:24:55+00:00</t>
+    <t>2023-02-14T16:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:40:13+00:00</t>
+    <t>2023-02-15T16:52:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:52:51+00:00</t>
+    <t>2023-02-16T17:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-healthcareservice-open-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T17:40:35+00:00</t>
+    <t>2023-02-17T08:35:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
